--- a/GII/companies_list.xlsx
+++ b/GII/companies_list.xlsx
@@ -49,7 +49,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
